--- a/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/analisis_finzen.xlsx
+++ b/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/analisis_finzen.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/980cee20288acd15/Escritorio/SIC/PROYECTO/Proyecto/sic-ecuador-2025-proyectos/EC03/FINZEN GESTIÓN Y MANEJO DE FINANZAS PERSONALES MEDIANTE VISUALIZACIÓN DE DATOS EN JÓVENES/out/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_01FB1730F99328449B2D479419AEB2C0F5936041" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9C92EA-FF10-4287-94E9-D00EC401D21B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="finanzas" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="equilibrio" sheetId="3" r:id="rId3"/>
     <sheet name="tipo_ingreso" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="301">
   <si>
     <t>nombre</t>
   </si>
@@ -133,6 +127,33 @@
     <t xml:space="preserve">Sasha </t>
   </si>
   <si>
+    <t xml:space="preserve">Juliette </t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Doménica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela </t>
+  </si>
+  <si>
+    <t>domenica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola </t>
+  </si>
+  <si>
+    <t>Fernanda</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
     <t>Andrade</t>
   </si>
   <si>
@@ -202,6 +223,36 @@
     <t>Pluas</t>
   </si>
   <si>
+    <t>Constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vasquez </t>
+  </si>
+  <si>
+    <t>Pinto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Díaz Amaguaña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Käslin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuasquer </t>
+  </si>
+  <si>
+    <t>castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guitarra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisneros </t>
+  </si>
+  <si>
+    <t>Vera</t>
+  </si>
+  <si>
     <t>1750844597</t>
   </si>
   <si>
@@ -274,6 +325,36 @@
     <t>1725871527</t>
   </si>
   <si>
+    <t>1004820054</t>
+  </si>
+  <si>
+    <t>1727159285</t>
+  </si>
+  <si>
+    <t>1004421937</t>
+  </si>
+  <si>
+    <t>1755552731</t>
+  </si>
+  <si>
+    <t>1752930360</t>
+  </si>
+  <si>
+    <t>1005331168</t>
+  </si>
+  <si>
+    <t>1753379666</t>
+  </si>
+  <si>
+    <t>1003871132</t>
+  </si>
+  <si>
+    <t>1727762070</t>
+  </si>
+  <si>
+    <t>1728993677</t>
+  </si>
+  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -340,6 +421,33 @@
     <t>{'Trabajo': 120}</t>
   </si>
   <si>
+    <t>{'Mensualidad': 40}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 25}</t>
+  </si>
+  <si>
+    <t>{'Emprendimiento': 60}</t>
+  </si>
+  <si>
+    <t>{'Mensuidad': 80}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 200}</t>
+  </si>
+  <si>
+    <t>{'familia': 20}</t>
+  </si>
+  <si>
+    <t>{'trabajo': 15, 'familia': 75}</t>
+  </si>
+  <si>
+    <t>{'Familia': 40}</t>
+  </si>
+  <si>
+    <t>{'Mensualidad': 165}</t>
+  </si>
+  <si>
     <t>{'Universidad': 70}</t>
   </si>
   <si>
@@ -412,6 +520,36 @@
     <t>{'Pasajes': 9, 'Comida': 36, 'Renta': 54}</t>
   </si>
   <si>
+    <t>{'Pasajes': 35}</t>
+  </si>
+  <si>
+    <t>{'pasajes': 10, 'Comida': 30}</t>
+  </si>
+  <si>
+    <t>{'Pasajes': 10, 'Comida': 8}</t>
+  </si>
+  <si>
+    <t>{'Pasaje': 20, 'comida': 10, 'universidad': 10}</t>
+  </si>
+  <si>
+    <t>{'Comida': 50, 'Pasajes': 10}</t>
+  </si>
+  <si>
+    <t>{'Vivienda': 80, 'Comida': 70, 'Pasajes': 22}</t>
+  </si>
+  <si>
+    <t>{'Familia': 10}</t>
+  </si>
+  <si>
+    <t>{'Universidad': 36, 'Trabajo': 25}</t>
+  </si>
+  <si>
+    <t>{'Universidad': 30}</t>
+  </si>
+  <si>
+    <t>{'Comida': 80, 'Vivienda': 65, 'Lavandería': 7, 'Otros': 13}</t>
+  </si>
+  <si>
     <t>{'Pareja': 25}</t>
   </si>
   <si>
@@ -484,6 +622,33 @@
     <t>{'Restaurante': 5}</t>
   </si>
   <si>
+    <t>{'Dulces': 7}</t>
+  </si>
+  <si>
+    <t>{'Ropa': 5}</t>
+  </si>
+  <si>
+    <t>{'Libros': 20}</t>
+  </si>
+  <si>
+    <t>{'Ropa': 20, 'tecnología': 50}</t>
+  </si>
+  <si>
+    <t>{'Salidas': 10}</t>
+  </si>
+  <si>
+    <t>{'sin registro': 0}</t>
+  </si>
+  <si>
+    <t>{'pareja': 10, 'dulces': 5}</t>
+  </si>
+  <si>
+    <t>{'Comida': 2}</t>
+  </si>
+  <si>
+    <t>{'Medicinas': 25}</t>
+  </si>
+  <si>
     <t>24-26</t>
   </si>
   <si>
@@ -550,6 +715,42 @@
     <t xml:space="preserve">Leysi </t>
   </si>
   <si>
+    <t xml:space="preserve">Liseth </t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melany </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anayeli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy </t>
+  </si>
+  <si>
+    <t>Félix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jade </t>
+  </si>
+  <si>
+    <t>Eloy</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damaris </t>
+  </si>
+  <si>
+    <t>Giannirley</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ruiz </t>
   </si>
   <si>
@@ -592,6 +793,42 @@
     <t xml:space="preserve">Ojeda </t>
   </si>
   <si>
+    <t xml:space="preserve">Bustos </t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romero Lomas </t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benalcázar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suárez </t>
+  </si>
+  <si>
+    <t>Cevallos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincango </t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cunalata </t>
+  </si>
+  <si>
+    <t>Calderón</t>
+  </si>
+  <si>
     <t>1728732601</t>
   </si>
   <si>
@@ -635,6 +872,48 @@
   </si>
   <si>
     <t>1004743884</t>
+  </si>
+  <si>
+    <t>1756083174</t>
+  </si>
+  <si>
+    <t>1727897199</t>
+  </si>
+  <si>
+    <t>1724668262</t>
+  </si>
+  <si>
+    <t>1005124019</t>
+  </si>
+  <si>
+    <t>1004908743</t>
+  </si>
+  <si>
+    <t>1005334311</t>
+  </si>
+  <si>
+    <t>1213148180</t>
+  </si>
+  <si>
+    <t>1755847405</t>
+  </si>
+  <si>
+    <t>1050331857</t>
+  </si>
+  <si>
+    <t>1756083083</t>
+  </si>
+  <si>
+    <t>3050476666</t>
+  </si>
+  <si>
+    <t>1206796847</t>
+  </si>
+  <si>
+    <t>1711576106</t>
+  </si>
+  <si>
+    <t>1726984642</t>
   </si>
   <si>
     <t>dificultad_equilibrio</t>
@@ -646,8 +925,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -710,21 +989,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -762,7 +1033,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -796,7 +1067,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -831,10 +1101,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,22 +1276,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="35.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,30 +1321,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="I2">
         <v>10</v>
@@ -1092,36 +1353,36 @@
         <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L2">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="I3">
         <v>20</v>
@@ -1130,36 +1391,36 @@
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I4">
         <v>10</v>
@@ -1168,36 +1429,36 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -1206,36 +1467,36 @@
         <v>12.5</v>
       </c>
       <c r="K5" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L5">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="I6">
         <v>30</v>
@@ -1244,13 +1505,13 @@
         <v>38.1</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L6">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1258,22 +1519,22 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="I7">
         <v>20</v>
@@ -1282,36 +1543,36 @@
         <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L7">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="H8" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1320,36 +1581,36 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="L8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="H9" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1358,36 +1619,36 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L9">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="I10">
         <v>10</v>
@@ -1396,36 +1657,36 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L10">
         <v>190</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1434,36 +1695,36 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L11">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H12" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="I12">
         <v>5</v>
@@ -1472,36 +1733,36 @@
         <v>5</v>
       </c>
       <c r="K12" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L12">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1510,36 +1771,36 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L13">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="I14">
         <v>5</v>
@@ -1548,36 +1809,36 @@
         <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L14">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="H15" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -1586,36 +1847,36 @@
         <v>0.5</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L15">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1624,36 +1885,36 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L16">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="I17">
         <v>10</v>
@@ -1662,36 +1923,36 @@
         <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L17">
         <v>265</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="I18">
         <v>5</v>
@@ -1700,36 +1961,36 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="L18">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="I19">
         <v>10</v>
@@ -1738,36 +1999,36 @@
         <v>7</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="I20">
         <v>100</v>
@@ -1776,36 +2037,36 @@
         <v>400</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L20">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F21" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="I21">
         <v>50</v>
@@ -1814,36 +2075,36 @@
         <v>150</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L21">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>197</v>
       </c>
       <c r="I22">
         <v>10</v>
@@ -1852,36 +2113,36 @@
         <v>5</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="L22">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="I23">
         <v>10</v>
@@ -1890,36 +2151,36 @@
         <v>8</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L23">
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1928,36 +2189,36 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L24">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1966,10 +2227,390 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>156</v>
+        <v>213</v>
       </c>
       <c r="L25">
         <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>201</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27">
+        <v>30</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1.25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>12</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>205</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" t="s">
+        <v>212</v>
+      </c>
+      <c r="L30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" t="s">
+        <v>206</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>212</v>
+      </c>
+      <c r="L31">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I32">
+        <v>25</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" t="s">
+        <v>207</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" t="s">
+        <v>175</v>
+      </c>
+      <c r="H34" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>212</v>
+      </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
+        <v>209</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>8.25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>212</v>
+      </c>
+      <c r="L35">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1978,14 +2619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2002,30 +2643,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -2037,21 +2678,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2063,21 +2704,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -2089,21 +2730,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2115,21 +2756,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -2141,21 +2782,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2167,21 +2808,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2193,7 +2834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2201,13 +2842,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -2219,21 +2860,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -2245,21 +2886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2271,21 +2912,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2297,21 +2938,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2323,21 +2964,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2349,21 +2990,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2375,21 +3016,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2401,21 +3042,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2427,21 +3068,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -2453,21 +3094,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -2479,21 +3120,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2505,21 +3146,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2531,21 +3172,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2557,21 +3198,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2583,21 +3224,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2609,21 +3250,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="D25">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2635,21 +3276,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2661,21 +3302,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2687,21 +3328,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2713,21 +3354,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2739,21 +3380,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2765,21 +3406,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D31">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2791,21 +3432,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2817,21 +3458,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2843,21 +3484,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2869,21 +3510,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D35">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2895,21 +3536,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2921,21 +3562,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2947,21 +3588,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2973,21 +3614,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2999,21 +3640,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3023,6 +3664,630 @@
       </c>
       <c r="H40">
         <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3031,14 +4296,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3055,110 +4320,110 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D4">
         <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -3166,376 +4431,576 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D7">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D10">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D13">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D14">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D15">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D16">
         <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D17">
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D18">
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D19">
         <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D20">
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>22</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>24</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D23">
         <v>21</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D25">
         <v>27</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29">
+        <v>21</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>113</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3544,14 +5009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,150 +5033,150 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D2">
         <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D3">
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="D4">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>245</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="D6">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -3719,636 +5184,1116 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D9">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>246</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D10">
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D11">
         <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D12">
         <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="D13">
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="C14" t="s">
-        <v>192</v>
+        <v>273</v>
       </c>
       <c r="D14">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C17" t="s">
-        <v>193</v>
+        <v>274</v>
       </c>
       <c r="D17">
         <v>23</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C18" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="D18">
         <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s">
-        <v>181</v>
+        <v>250</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D19">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>224</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>251</v>
       </c>
       <c r="C20" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="D20">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>252</v>
       </c>
       <c r="C21" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="D21">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="C23" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="D24">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="B25" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="D25">
         <v>21</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D27">
         <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="D28">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D29">
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="D31">
         <v>23</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
       <c r="D35">
         <v>21</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D37">
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="D38">
         <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>257</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>284</v>
       </c>
       <c r="D40">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F40">
         <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" t="s">
+        <v>285</v>
+      </c>
+      <c r="D42">
+        <v>21</v>
+      </c>
+      <c r="E42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" t="s">
+        <v>286</v>
+      </c>
+      <c r="D43">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>260</v>
+      </c>
+      <c r="C44" t="s">
+        <v>287</v>
+      </c>
+      <c r="D44">
+        <v>19</v>
+      </c>
+      <c r="E44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s">
+        <v>261</v>
+      </c>
+      <c r="C46" t="s">
+        <v>288</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>289</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" t="s">
+        <v>291</v>
+      </c>
+      <c r="D51">
+        <v>22</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>113</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" t="s">
+        <v>292</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C54" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>239</v>
+      </c>
+      <c r="B55" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" t="s">
+        <v>294</v>
+      </c>
+      <c r="D55">
+        <v>19</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>240</v>
+      </c>
+      <c r="B56" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" t="s">
+        <v>295</v>
+      </c>
+      <c r="D56">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57">
+        <v>19</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" t="s">
+        <v>267</v>
+      </c>
+      <c r="C58" t="s">
+        <v>296</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>113</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>297</v>
+      </c>
+      <c r="D60">
+        <v>21</v>
+      </c>
+      <c r="E60" t="s">
+        <v>113</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>113</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B62" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D62">
+        <v>21</v>
+      </c>
+      <c r="E62" t="s">
+        <v>113</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>113</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64" t="s">
+        <v>113</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
